--- a/DATA_goal/Junction_Flooding_280.xlsx
+++ b/DATA_goal/Junction_Flooding_280.xlsx
@@ -447,7 +447,7 @@
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
@@ -655,103 +655,103 @@
         <v>41712.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.41</v>
+        <v>0.44</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.83</v>
+        <v>0.18</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.69</v>
+        <v>0.17</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.96</v>
+        <v>0.5</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>6.46</v>
+        <v>0.65</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.42</v>
+        <v>0.24</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.34</v>
+        <v>0.53</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.59</v>
+        <v>0.26</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.09</v>
+        <v>0.11</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.62</v>
+        <v>0.16</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.87</v>
+        <v>0.29</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.39</v>
+        <v>0.44</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.26</v>
+        <v>0.13</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>5.05</v>
+        <v>0.5</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>31.51</v>
+        <v>3.15</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>6.77</v>
+        <v>0.68</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.78</v>
+        <v>0.28</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.65</v>
+        <v>0.37</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>3.95</v>
+        <v>0.39</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.91</v>
+        <v>0.19</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.55</v>
+        <v>0.15</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.92</v>
+        <v>0.19</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.09</v>
+        <v>0.51</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>2.91</v>
+        <v>0.29</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.89</v>
+        <v>0.39</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.08</v>
+        <v>0.41</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.07</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41712.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.37</v>
+        <v>0.14</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.23</v>
+        <v>0.12</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.04</v>
+        <v>0.2</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.55</v>
+        <v>0.36</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="J3" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AE3" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AF3" s="4" t="n">
         <v>0.34</v>
       </c>
-      <c r="K3" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AF3" s="4" t="n">
-        <v>3.36</v>
-      </c>
       <c r="AG3" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41712.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>20.43</v>
+        <v>2.04</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>14.96</v>
+        <v>1.5</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>43.37</v>
+        <v>4.34</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>36.51</v>
+        <v>3.65</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>15.86</v>
+        <v>1.59</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>54.03</v>
+        <v>5.4</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>24.08</v>
+        <v>2.41</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>10.82</v>
+        <v>1.08</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>16.04</v>
+        <v>1.6</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>17.61</v>
+        <v>1.76</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>18.9</v>
+        <v>1.89</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.03</v>
+        <v>0.5</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>15.38</v>
+        <v>1.54</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>22.98</v>
+        <v>2.3</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>12.71</v>
+        <v>1.27</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>232.75</v>
+        <v>23.27</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>43.88</v>
+        <v>4.39</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>14.73</v>
+        <v>1.47</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>29.55</v>
+        <v>2.96</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>16.05</v>
+        <v>1.61</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.03</v>
+        <v>0.2</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>27.25</v>
+        <v>2.73</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>12.81</v>
+        <v>1.28</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>11.45</v>
+        <v>1.15</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>14.03</v>
+        <v>1.4</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>18.51</v>
+        <v>1.85</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>48.87</v>
+        <v>4.89</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>8.130000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>17.97</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41712.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.87</v>
+        <v>1.29</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.380000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>27.22</v>
+        <v>2.72</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>22.98</v>
+        <v>2.3</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.970000000000001</v>
+        <v>1</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>40.55</v>
+        <v>4.05</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.12</v>
+        <v>1.51</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.82</v>
+        <v>0.68</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.04</v>
+        <v>1</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.07</v>
+        <v>1.11</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>11.91</v>
+        <v>1.19</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.16</v>
+        <v>0.32</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.59</v>
+        <v>0.96</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>14.54</v>
+        <v>1.45</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.93</v>
+        <v>0.79</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>143.58</v>
+        <v>14.36</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>27.76</v>
+        <v>2.78</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>9.289999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>18.68</v>
+        <v>1.87</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>10.13</v>
+        <v>1.01</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.28</v>
+        <v>0.13</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>19.38</v>
+        <v>1.94</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.050000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.23</v>
+        <v>0.72</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.890000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>11.64</v>
+        <v>1.16</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>37.05</v>
+        <v>3.71</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.08</v>
+        <v>0.51</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.27</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41712.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>5.14</v>
+        <v>0.51</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>3.63</v>
+        <v>0.36</v>
       </c>
       <c r="D6" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AA6" s="4" t="n">
         <v>0.32</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>10.58</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>9.119999999999999</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>19.18</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>52.07</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>8.73</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.16</v>
-      </c>
       <c r="AB6" s="4" t="n">
-        <v>2.91</v>
+        <v>0.29</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>3.71</v>
+        <v>0.37</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>4.58</v>
+        <v>0.46</v>
       </c>
       <c r="AE6" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AH6" s="4" t="n">
         <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>17.69</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>4.37</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41712.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>14.82</v>
+        <v>1.48</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>10.94</v>
+        <v>1.09</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>31.74</v>
+        <v>3.17</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>26.55</v>
+        <v>2.66</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>11.56</v>
+        <v>1.16</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>42.21</v>
+        <v>4.22</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>17.65</v>
+        <v>1.77</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>7.94</v>
+        <v>0.79</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>11.76</v>
+        <v>1.18</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>12.83</v>
+        <v>1.28</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>13.7</v>
+        <v>1.37</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>3.68</v>
+        <v>0.37</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>11.26</v>
+        <v>1.13</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>16.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>9.33</v>
+        <v>0.93</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>167.65</v>
+        <v>16.76</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>32.02</v>
+        <v>3.2</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>10.71</v>
+        <v>1.07</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>21.61</v>
+        <v>2.16</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>11.59</v>
+        <v>1.16</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.49</v>
+        <v>0.15</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>20.65</v>
+        <v>2.06</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>9.359999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>8.32</v>
+        <v>0.83</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>10.03</v>
+        <v>1</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>13.49</v>
+        <v>1.35</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>38.07</v>
+        <v>3.81</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>5.96</v>
+        <v>0.6</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>13.16</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41712.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>10.09</v>
+        <v>1.01</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>7.42</v>
+        <v>0.74</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>21.54</v>
+        <v>2.15</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>18.07</v>
+        <v>1.81</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>7.86</v>
+        <v>0.79</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>32.18</v>
+        <v>3.22</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>11.98</v>
+        <v>1.2</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>5.41</v>
+        <v>0.54</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>7.96</v>
+        <v>0.8</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>8.720000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>9.33</v>
+        <v>0.93</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>7.61</v>
+        <v>0.76</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>11.39</v>
+        <v>1.14</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>6.3</v>
+        <v>0.63</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>111.61</v>
+        <v>11.16</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>21.9</v>
+        <v>2.19</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>7.3</v>
+        <v>0.73</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>14.77</v>
+        <v>1.48</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>7.91</v>
+        <v>0.79</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.01</v>
+        <v>0.1</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>15.36</v>
+        <v>1.54</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>6.36</v>
+        <v>0.64</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>5.68</v>
+        <v>0.57</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>6.88</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>9.17</v>
+        <v>0.92</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>29.35</v>
+        <v>2.94</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>4.03</v>
+        <v>0.4</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>8.93</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41712.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="D9" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E9" s="4" t="n">
         <v>0.11</v>
       </c>
-      <c r="E9" s="4" t="n">
-        <v>1.08</v>
-      </c>
       <c r="F9" s="4" t="n">
-        <v>1.12</v>
+        <v>0.11</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>7.99</v>
+        <v>0.8</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>1.05</v>
+        <v>0.11</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T9" s="4" t="n">
         <v>0</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>1.76</v>
+        <v>0.18</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>1.38</v>
+        <v>0.14</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="Y9" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Z9" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AA9" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AB9" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AC9" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AD9" s="4" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z9" s="4" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.53</v>
-      </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>7.75</v>
+        <v>0.78</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41712.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>12.47</v>
+        <v>1.25</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>9.24</v>
+        <v>0.92</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>26.81</v>
+        <v>2.68</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>22.37</v>
+        <v>2.24</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>9.48</v>
+        <v>0.95</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>33.46</v>
+        <v>3.35</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>14.92</v>
+        <v>1.49</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>6.69</v>
+        <v>0.67</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>9.94</v>
+        <v>0.99</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>10.82</v>
+        <v>1.08</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>11.53</v>
+        <v>1.15</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>3.11</v>
+        <v>0.31</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>9.529999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>13.97</v>
+        <v>1.4</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>7.89</v>
+        <v>0.79</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>140.47</v>
+        <v>14.05</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>26.88</v>
+        <v>2.69</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>9.02</v>
+        <v>0.9</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>18.14</v>
+        <v>1.81</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.26</v>
+        <v>0.13</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>16.49</v>
+        <v>1.65</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>7.9</v>
+        <v>0.79</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>7</v>
+        <v>0.7</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>8.390000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>11.38</v>
+        <v>1.14</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>29.88</v>
+        <v>2.99</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>5.04</v>
+        <v>0.5</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>11.12</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_280.xlsx
+++ b/DATA_goal/Junction_Flooding_280.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,10 +444,10 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41712.34027777778</v>
+        <v>44961.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.44</v>
+        <v>1.87</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.18</v>
+        <v>1.25</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.17</v>
+        <v>0.4</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.5</v>
+        <v>3.98</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.65</v>
+        <v>3.19</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.24</v>
+        <v>1.47</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.53</v>
+        <v>4.65</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.26</v>
+        <v>2.27</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.42</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.29</v>
+        <v>1.57</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.44</v>
+        <v>1.63</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.47</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.47</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.5</v>
+        <v>2.04</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.09</v>
+        <v>1.26</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.34</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.01</v>
+        <v>0.22</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>3.15</v>
+        <v>21.58</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.68</v>
+        <v>4.08</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.28</v>
+        <v>1.35</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.37</v>
+        <v>2.68</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.39</v>
+        <v>1.36</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.31</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.19</v>
+        <v>2.36</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.2</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.19</v>
+        <v>1.09</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.51</v>
+        <v>1.27</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.29</v>
+        <v>1.62</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.39</v>
+        <v>0.35</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.41</v>
+        <v>4.12</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.74</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.21</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41712.34722222222</v>
+        <v>44961.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.14</v>
+        <v>0.67</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.44</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.2</v>
+        <v>1.13</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.36</v>
+        <v>2.36</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.33</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.48</v>
       </c>
       <c r="L3" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="S3" s="4" t="n">
         <v>0.08</v>
       </c>
-      <c r="M3" s="4" t="n">
+      <c r="T3" s="4" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="Y3" s="4" t="n">
         <v>0.13</v>
       </c>
-      <c r="N3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="Z3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.12</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.43</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.18</v>
+        <v>0.47</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.59</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.34</v>
+        <v>2.18</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.26</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41712.35416666666</v>
+        <v>44961.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.04</v>
+        <v>1.01</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.5</v>
+        <v>0.71</v>
       </c>
       <c r="D4" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="R4" s="4" t="n">
         <v>0.1</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.05</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>23.27</v>
+        <v>11.28</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.39</v>
+        <v>2.2</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.47</v>
+        <v>0.73</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.96</v>
+        <v>1.46</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.61</v>
+        <v>0.76</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.73</v>
+        <v>1.45</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.28</v>
+        <v>0.64</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.15</v>
+        <v>0.58</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.4</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.85</v>
+        <v>0.91</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.89</v>
+        <v>2.71</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.8</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41712.36111111111</v>
+        <v>44961.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="G5" s="4" t="n">
         <v>1.29</v>
       </c>
-      <c r="C5" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="H5" s="4" t="n">
-        <v>4.05</v>
+        <v>4.81</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.51</v>
+        <v>1.98</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.68</v>
+        <v>0.87</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.11</v>
+        <v>1.42</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.19</v>
+        <v>1.5</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.32</v>
+        <v>0.41</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.96</v>
+        <v>1.28</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.45</v>
+        <v>1.81</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.79</v>
+        <v>1.09</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>14.36</v>
+        <v>18.72</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.78</v>
+        <v>3.57</v>
       </c>
       <c r="V5" s="4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AB5" s="4" t="n">
         <v>0.93</v>
       </c>
-      <c r="W5" s="4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.72</v>
-      </c>
       <c r="AC5" s="4" t="n">
-        <v>0.89</v>
+        <v>1.09</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.16</v>
+        <v>1.49</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.71</v>
+        <v>4.36</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.51</v>
+        <v>0.66</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.13</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41712.36805555555</v>
+        <v>44961.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.51</v>
+        <v>18.74</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.36</v>
+        <v>13.8</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.03</v>
+        <v>1.06</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>1.06</v>
+        <v>40.72</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>0.91</v>
+        <v>33.35</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.39</v>
+        <v>14.74</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>1.92</v>
+        <v>56.93</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>0.59</v>
+        <v>22.69</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.27</v>
+        <v>10.07</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.38</v>
+        <v>14.89</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0.44</v>
+        <v>16.35</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>0.48</v>
+        <v>17.23</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.12</v>
+        <v>4.71</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.36</v>
+        <v>14.66</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>0.59</v>
+        <v>20.86</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.3</v>
+        <v>12.37</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.02</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.01</v>
+        <v>0.73</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>5.21</v>
+        <v>215.86</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>1.11</v>
+        <v>41.01</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.37</v>
+        <v>13.53</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>0.74</v>
+        <v>27.55</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.41</v>
+        <v>14.44</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.05</v>
+        <v>2.18</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>0.87</v>
+        <v>27.73</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.32</v>
+        <v>11.95</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.29</v>
+        <v>10.61</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.37</v>
+        <v>12.47</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>0.46</v>
+        <v>17.13</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>1.77</v>
+        <v>51.69</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.19</v>
+        <v>7.61</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41712.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>16.76</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41712.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41712.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41712.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>14.05</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.11</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41712.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>21.88</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>16.32</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>47.31</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>16.94</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>64.34</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>26.33</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>17.61</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>19.04</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>20.21</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>16.91</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>24.55</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>14.01</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>252.64</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>15.81</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>32.26</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>17.06</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>31.72</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>13.91</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>12.27</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>14.57</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>20.02</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>58.46</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>19.63</v>
+        <v>16.92</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_280.xlsx
+++ b/DATA_goal/Junction_Flooding_280.xlsx
@@ -444,7 +444,7 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
@@ -655,103 +655,103 @@
         <v>44961.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.87</v>
+        <v>18.74</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.25</v>
+        <v>12.53</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.4</v>
+        <v>4.03</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.98</v>
+        <v>39.83</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.19</v>
+        <v>31.89</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.47</v>
+        <v>14.74</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>4.65</v>
+        <v>46.5</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.27</v>
+        <v>22.69</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.44</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.42</v>
+        <v>14.21</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.57</v>
+        <v>15.68</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.63</v>
+        <v>16.31</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.47</v>
+        <v>4.71</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.47</v>
+        <v>14.66</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.04</v>
+        <v>20.45</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.26</v>
+        <v>12.57</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.44</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.24</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>21.58</v>
+        <v>215.82</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.08</v>
+        <v>40.75</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.35</v>
+        <v>13.53</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.68</v>
+        <v>26.79</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.36</v>
+        <v>13.63</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.07</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.36</v>
+        <v>23.63</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.2</v>
+        <v>11.95</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.09</v>
+        <v>10.86</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.27</v>
+        <v>12.74</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.62</v>
+        <v>16.18</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.45</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.12</v>
+        <v>41.23</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.42</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.69</v>
+        <v>16.92</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44961.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.73</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.43</v>
+        <v>4.34</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.49</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.44</v>
+        <v>14.41</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.13</v>
+        <v>11.27</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.53</v>
+        <v>5.29</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.36</v>
+        <v>23.65</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.35</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.48</v>
+        <v>4.8</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.57</v>
+        <v>5.74</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.59</v>
+        <v>5.89</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.7</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.53</v>
+        <v>5.26</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.73</v>
+        <v>7.31</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.48</v>
+        <v>4.78</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.47</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>7.28</v>
+        <v>72.81999999999999</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.49</v>
+        <v>14.92</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.49</v>
+        <v>4.86</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.96</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.49</v>
+        <v>4.87</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.12</v>
+        <v>11.16</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.43</v>
+        <v>4.29</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.4</v>
+        <v>4.05</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.72</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.59</v>
+        <v>5.86</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.27</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.18</v>
+        <v>21.82</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.57</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.61</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44961.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.01</v>
+        <v>10.09</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.71</v>
+        <v>7.11</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.11</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.18</v>
+        <v>21.85</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.76</v>
+        <v>17.58</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.94</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3</v>
+        <v>30.02</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.22</v>
+        <v>12.22</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.26</v>
       </c>
       <c r="K4" s="4" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>8.76</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>6.87</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>112.83</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>22.03</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>14.56</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>14.49</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.77</v>
       </c>
-      <c r="L4" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>11.28</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.08</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>2.71</v>
+        <v>27.1</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.91</v>
+        <v>9.109999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44961.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.63</v>
+        <v>16.33</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.19</v>
+        <v>11.93</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.1</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.55</v>
+        <v>35.48</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.89</v>
+        <v>28.95</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.29</v>
+        <v>12.85</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.81</v>
+        <v>48.14</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.98</v>
+        <v>19.78</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.87</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.29</v>
+        <v>12.88</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.42</v>
+        <v>14.24</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.5</v>
+        <v>14.98</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.11</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.28</v>
+        <v>12.78</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.81</v>
+        <v>18.13</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.86</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>18.72</v>
+        <v>187.24</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.57</v>
+        <v>35.71</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.18</v>
+        <v>11.8</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.39</v>
+        <v>23.91</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.25</v>
+        <v>12.53</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.2</v>
+        <v>1.99</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.36</v>
+        <v>23.61</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.04</v>
+        <v>10.42</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.92</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.49</v>
+        <v>14.9</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.36</v>
+        <v>43.61</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.66</v>
+        <v>6.6</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.48</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_280.xlsx
+++ b/DATA_goal/Junction_Flooding_280.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,38 +443,38 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
@@ -655,100 +655,100 @@
         <v>44961.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>18.74</v>
+        <v>18.737</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>12.53</v>
+        <v>12.527</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.03</v>
+        <v>4.029</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>39.83</v>
+        <v>39.827</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>31.89</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>14.74</v>
+        <v>14.745</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>46.5</v>
+        <v>46.499</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>22.69</v>
+        <v>22.687</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>9.44</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>14.21</v>
+        <v>14.208</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>15.68</v>
+        <v>15.679</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>16.31</v>
+        <v>16.314</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.71</v>
+        <v>4.706</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>14.66</v>
+        <v>14.663</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>20.45</v>
+        <v>20.445</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>12.57</v>
+        <v>12.568</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.44</v>
+        <v>3.441</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.24</v>
+        <v>2.244</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>215.82</v>
+        <v>215.823</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>40.75</v>
+        <v>40.754</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>13.53</v>
+        <v>13.534</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>26.79</v>
+        <v>26.795</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>13.63</v>
+        <v>13.632</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.07</v>
+        <v>3.069</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>23.63</v>
+        <v>23.634</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>11.95</v>
+        <v>11.955</v>
       </c>
       <c r="AB2" s="4" t="n">
         <v>10.86</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>12.74</v>
+        <v>12.744</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>16.18</v>
+        <v>16.181</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.45</v>
+        <v>3.455</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>41.23</v>
+        <v>41.233</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>7.42</v>
+        <v>7.422</v>
       </c>
       <c r="AH2" s="4" t="n">
         <v>16.92</v>
@@ -759,103 +759,103 @@
         <v>44961.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>6.73</v>
+        <v>6.726</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.34</v>
+        <v>4.336</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.49</v>
+        <v>1.486</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>14.41</v>
+        <v>14.413</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>11.27</v>
+        <v>11.267</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5.29</v>
+        <v>5.294</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>23.65</v>
+        <v>23.645</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>8.140000000000001</v>
+        <v>8.144</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.35</v>
+        <v>3.349</v>
       </c>
       <c r="K3" s="4" t="n">
         <v>4.8</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>5.74</v>
+        <v>5.739</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>5.89</v>
+        <v>5.891</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.7</v>
+        <v>1.696</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>5.26</v>
+        <v>5.263</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>7.31</v>
+        <v>7.306</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>4.78</v>
+        <v>4.782</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.47</v>
+        <v>1.467</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.78</v>
+        <v>0.784</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>72.81999999999999</v>
+        <v>72.821</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>14.92</v>
+        <v>14.922</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>4.86</v>
+        <v>4.858</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>9.628</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>4.87</v>
+        <v>4.868</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.29</v>
+        <v>1.294</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>11.16</v>
+        <v>11.161</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.29</v>
+        <v>4.291</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.05</v>
+        <v>4.045</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.72</v>
+        <v>4.719</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>5.86</v>
+        <v>5.856</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.27</v>
+        <v>1.265</v>
       </c>
       <c r="AF3" s="4" t="n">
         <v>21.82</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.57</v>
+        <v>2.565</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>6.08</v>
+        <v>6.075</v>
       </c>
     </row>
     <row r="4">
@@ -863,16 +863,16 @@
         <v>44961.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>10.09</v>
+        <v>10.089</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.11</v>
+        <v>7.114</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>1.11</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>21.85</v>
+        <v>21.848</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>17.58</v>
@@ -881,85 +881,85 @@
         <v>7.94</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>30.02</v>
+        <v>30.022</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>12.22</v>
+        <v>12.216</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.26</v>
+        <v>5.257</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.7</v>
+        <v>7.701</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>8.76</v>
+        <v>8.762</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>9.140000000000001</v>
+        <v>9.145</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.53</v>
+        <v>2.535</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.9</v>
+        <v>7.895</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>11.09</v>
+        <v>11.088</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.87</v>
+        <v>6.871</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.99</v>
+        <v>0.994</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.63</v>
+        <v>0.634</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>112.83</v>
+        <v>112.831</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>22.03</v>
+        <v>22.034</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>7.29</v>
+        <v>7.288</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>14.56</v>
+        <v>14.556</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>7.6</v>
+        <v>7.597</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.45</v>
+        <v>1.448</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>14.49</v>
+        <v>14.487</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>6.44</v>
+        <v>6.437</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.85</v>
+        <v>5.846</v>
       </c>
       <c r="AC4" s="4" t="n">
         <v>6.85</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>9.1</v>
+        <v>9.103</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>27.1</v>
+        <v>27.096</v>
       </c>
       <c r="AG4" s="4" t="n">
         <v>4</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>9.111000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>14.75</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44961.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>18.74</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>40.72</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>33.35</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>14.74</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>56.93</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>22.69</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>14.89</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>17.23</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>14.66</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>20.86</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>215.86</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>41.01</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>13.53</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>27.55</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>14.44</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>27.73</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>10.61</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>12.47</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>17.13</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>51.69</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>16.92</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_280.xlsx
+++ b/DATA_goal/Junction_Flooding_280.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,7 +475,7 @@
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -967,103 +967,207 @@
         <v>44961.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>16.33</v>
+        <v>16.334</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.93</v>
+        <v>11.927</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.1</v>
+        <v>1.103</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>35.48</v>
+        <v>35.477</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>28.95</v>
+        <v>28.945</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>12.85</v>
+        <v>12.855</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>48.14</v>
+        <v>48.139</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>19.78</v>
+        <v>19.779</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.720000000000001</v>
+        <v>8.718999999999999</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>12.88</v>
+        <v>12.876</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>14.24</v>
+        <v>14.241</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>14.98</v>
+        <v>14.975</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.11</v>
+        <v>4.105</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.78</v>
+        <v>12.783</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>18.13</v>
+        <v>18.132</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.86</v>
+        <v>10.855</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.71</v>
+        <v>0.714</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>187.24</v>
+        <v>187.237</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>35.71</v>
+        <v>35.706</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.8</v>
+        <v>11.799</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>23.91</v>
+        <v>23.908</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>12.53</v>
+        <v>12.525</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>1.99</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>23.61</v>
+        <v>23.611</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.42</v>
+        <v>10.422</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.300000000000001</v>
+        <v>9.295</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>10.92</v>
+        <v>10.917</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>14.9</v>
+        <v>14.898</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>43.61</v>
+        <v>43.609</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.6</v>
+        <v>6.603</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>14.75</v>
+        <v>14.751</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44961.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>18.74</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>40.72</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>33.35</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>14.74</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>56.93</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>22.69</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>14.89</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>17.23</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>14.66</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>20.86</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>215.86</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>41.01</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>13.53</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>27.55</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>14.44</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>27.73</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>10.61</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>17.13</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>51.69</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>16.92</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_280.xlsx
+++ b/DATA_goal/Junction_Flooding_280.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,7 +475,7 @@
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -967,207 +967,103 @@
         <v>44961.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>16.334</v>
+        <v>16.33</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.927</v>
+        <v>11.93</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.103</v>
+        <v>1.1</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>35.477</v>
+        <v>35.48</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>28.945</v>
+        <v>28.95</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>12.855</v>
+        <v>12.85</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>48.139</v>
+        <v>48.14</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>19.779</v>
+        <v>19.78</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.718999999999999</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>12.876</v>
+        <v>12.88</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>14.241</v>
+        <v>14.24</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>14.975</v>
+        <v>14.98</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.105</v>
+        <v>4.11</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.783</v>
+        <v>12.78</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>18.132</v>
+        <v>18.13</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.855</v>
+        <v>10.86</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.714</v>
+        <v>0.71</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>187.237</v>
+        <v>187.24</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>35.706</v>
+        <v>35.71</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.799</v>
+        <v>11.8</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>23.908</v>
+        <v>23.91</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>12.525</v>
+        <v>12.53</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>1.99</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>23.611</v>
+        <v>23.61</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.422</v>
+        <v>10.42</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.295</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>10.917</v>
+        <v>10.92</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>14.898</v>
+        <v>14.9</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>43.609</v>
+        <v>43.61</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.603</v>
+        <v>6.6</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>14.751</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44961.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>18.74</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>40.72</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>33.35</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>14.74</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>56.93</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>22.69</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>14.89</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>17.23</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>14.66</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>20.86</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>215.86</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>41.01</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>13.53</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>27.55</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>14.44</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>27.73</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>10.61</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>12.47</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>17.13</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>51.69</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>16.92</v>
+        <v>14.75</v>
       </c>
     </row>
   </sheetData>
